--- a/DSA450.xlsx
+++ b/DSA450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\OneDrive\Desktop\TARGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC94D3-3B8E-4EC1-8CD0-25284598BFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC02BBD-72EF-44F4-A885-708BD014DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -30,6 +30,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BFC86500-D920-4EAC-9C44-AB0A1CBCCCE6}</author>
+  </authors>
+  <commentList>
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{BFC86500-D920-4EAC-9C44-AB0A1CBCCCE6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I am DUMB</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="475">
   <si>
@@ -1462,7 +1480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1542,6 +1560,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1615,7 +1639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1689,6 +1713,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1705,6 +1730,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Vivek Kumar" id="{8D0287E7-DA57-4C79-AC4B-84D8CFE30F30}" userId="b4fb146195f2f4bf" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2002,12 +2033,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C57" dT="2022-10-19T17:36:43.38" personId="{8D0287E7-DA57-4C79-AC4B-84D8CFE30F30}" id="{BFC86500-D920-4EAC-9C44-AB0A1CBCCCE6}">
+    <text>I am DUMB</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2612,489 +2651,575 @@
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:5" ht="21">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C56" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="21">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C57" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" ht="21">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="21">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" ht="21">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="21">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C61" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="21">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C62" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="21">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" ht="21">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="21">
-      <c r="A65" s="2" t="s">
+      <c r="C64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" ht="21">
+      <c r="A65" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="21">
-      <c r="A66" s="2" t="s">
+      <c r="C65" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" ht="21">
+      <c r="A66" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="21">
-      <c r="A67" s="2" t="s">
+      <c r="C66" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" ht="21">
+      <c r="A67" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="21">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" ht="21">
+      <c r="A68" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="21">
-      <c r="A69" s="2" t="s">
+      <c r="C68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="21">
+      <c r="A69" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="21">
-      <c r="A70" s="2" t="s">
+      <c r="C69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" ht="21">
+      <c r="A70" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="21">
-      <c r="A71" s="2" t="s">
+      <c r="C70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" ht="21">
+      <c r="A71" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="21">
-      <c r="A72" s="2" t="s">
+      <c r="C71" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" ht="21">
+      <c r="A72" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="21">
-      <c r="A73" s="2" t="s">
+      <c r="C72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" ht="21">
+      <c r="A73" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="21">
-      <c r="A74" s="2" t="s">
+      <c r="C73" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="21">
+      <c r="A74" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="21">
-      <c r="A75" s="2" t="s">
+      <c r="C74" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" ht="21">
+      <c r="A75" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="21">
-      <c r="A76" s="2" t="s">
+      <c r="C75" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" ht="21">
+      <c r="A76" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="21">
-      <c r="A77" s="2" t="s">
+      <c r="C76" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" ht="21">
+      <c r="A77" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="21">
-      <c r="A78" s="2" t="s">
+      <c r="C77" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" ht="21">
+      <c r="A78" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="21">
-      <c r="A79" s="2" t="s">
+      <c r="C78" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" ht="21">
+      <c r="A79" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="21">
-      <c r="A80" s="2" t="s">
+      <c r="C79" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="21">
+      <c r="A80" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="21">
-      <c r="A81" s="2" t="s">
+      <c r="C80" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="21">
+      <c r="A81" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="21">
-      <c r="A82" s="2" t="s">
+      <c r="C81" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" ht="21">
+      <c r="A82" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="21">
-      <c r="A83" s="2" t="s">
+      <c r="C82" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" ht="21">
+      <c r="A83" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="21">
-      <c r="A84" s="2" t="s">
+      <c r="C83" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" ht="21">
+      <c r="A84" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="21">
-      <c r="A85" s="2" t="s">
+      <c r="C84" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" ht="21">
+      <c r="A85" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="21">
-      <c r="A86" s="2" t="s">
+      <c r="C85" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" ht="21">
+      <c r="A86" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="21">
-      <c r="A87" s="2" t="s">
+      <c r="C86" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" ht="21">
+      <c r="A87" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="21">
-      <c r="A88" s="2" t="s">
+      <c r="C87" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" ht="21">
+      <c r="A88" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="21">
-      <c r="A89" s="2" t="s">
+      <c r="C88" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:5" ht="21">
+      <c r="A89" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="21">
-      <c r="A90" s="2" t="s">
+      <c r="C89" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" ht="21">
+      <c r="A90" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="21">
-      <c r="A91" s="2" t="s">
+      <c r="C90" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" ht="21">
+      <c r="A91" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="21">
-      <c r="A92" s="2" t="s">
+      <c r="C91" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" ht="21">
+      <c r="A92" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="21">
-      <c r="A93" s="2" t="s">
+      <c r="C92" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" ht="21">
+      <c r="A93" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="21">
-      <c r="A94" s="2" t="s">
+      <c r="C93" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" ht="21">
+      <c r="A94" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="21">
-      <c r="A95" s="2" t="s">
+      <c r="C94" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" ht="21">
+      <c r="A95" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
-      <c r="A96" s="2" t="s">
+      <c r="C95" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" ht="21">
+      <c r="A96" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="21">
-      <c r="A97" s="2" t="s">
+      <c r="C96" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:5" ht="21">
+      <c r="A97" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="21">
-      <c r="A98" s="2" t="s">
+      <c r="C97" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" ht="21">
+      <c r="A98" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="C98" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" spans="1:5" ht="21">
       <c r="A100" s="5"/>
       <c r="B100" s="4"/>
       <c r="C100" s="13"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" spans="1:5" ht="21">
       <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
@@ -3105,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" spans="1:5" ht="21">
       <c r="A102" s="2" t="s">
         <v>97</v>
       </c>
@@ -3116,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" spans="1:5" ht="21">
       <c r="A103" s="2" t="s">
         <v>97</v>
       </c>
@@ -3127,7 +3252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row r="104" spans="1:5" ht="21">
       <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
@@ -3138,7 +3263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" spans="1:5" ht="21">
       <c r="A105" s="2" t="s">
         <v>97</v>
       </c>
@@ -3149,7 +3274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" spans="1:5" ht="21">
       <c r="A106" s="2" t="s">
         <v>97</v>
       </c>
@@ -3160,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" spans="1:5" ht="21">
       <c r="A107" s="2" t="s">
         <v>97</v>
       </c>
@@ -3171,7 +3296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" spans="1:5" ht="21">
       <c r="A108" s="2" t="s">
         <v>97</v>
       </c>
@@ -3182,7 +3307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" spans="1:5" ht="21">
       <c r="A109" s="2" t="s">
         <v>97</v>
       </c>
@@ -3193,7 +3318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" spans="1:5" ht="21">
       <c r="A110" s="2" t="s">
         <v>97</v>
       </c>
@@ -3204,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" spans="1:5" ht="21">
       <c r="A111" s="2" t="s">
         <v>97</v>
       </c>
@@ -3215,7 +3340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" spans="1:5" ht="21">
       <c r="A112" s="2" t="s">
         <v>97</v>
       </c>
@@ -7600,5 +7725,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId447"/>
+  <legacyDrawing r:id="rId448"/>
 </worksheet>
 </file>
--- a/DSA450.xlsx
+++ b/DSA450.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\OneDrive\Desktop\TARGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC02BBD-72EF-44F4-A885-708BD014DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEAF48C-E2CE-44B6-B6EB-3B16C40CBD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="476">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1449,18 +1454,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>2:30 min</t>
-  </si>
-  <si>
-    <t>3:17 min</t>
-  </si>
-  <si>
-    <t>3:41 min</t>
-  </si>
-  <si>
     <t>Explaination</t>
   </si>
   <si>
@@ -1474,6 +1467,21 @@
   </si>
   <si>
     <t>use row and col expressions using "/" and "%"</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>jbardsati methods</t>
+  </si>
+  <si>
+    <t>marking -ve / Use slow and fast ptr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort and use three pointers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign max and min / like buy &amp; sell stock  </t>
   </si>
 </sst>
 </file>
@@ -1561,10 +1569,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1639,7 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1702,18 +1712,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2045,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2054,8 +2066,8 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" customWidth="1"/>
-    <col min="5" max="5" width="73.3984375" customWidth="1"/>
+    <col min="4" max="4" width="73.3984375" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6">
@@ -2067,6 +2079,16 @@
       <c r="B2" s="7" t="s">
         <v>464</v>
       </c>
+      <c r="C2" s="37">
+        <f>COUNTBLANK(C6:C41)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3">
+        <f>COUNTIF(C6:C41,"Yes")</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="21">
       <c r="A4" s="23" t="s">
@@ -2082,15 +2104,15 @@
         <v>466</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="21">
       <c r="A6" s="9" t="s">
@@ -2102,10 +2124,8 @@
       <c r="C6" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="21">
       <c r="A7" s="9" t="s">
@@ -2117,10 +2137,8 @@
       <c r="C7" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="E7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="21">
       <c r="A8" s="9" t="s">
@@ -2132,10 +2150,8 @@
       <c r="C8" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="21">
       <c r="A9" s="9" t="s">
@@ -2147,10 +2163,10 @@
       <c r="C9" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8" t="s">
-        <v>471</v>
-      </c>
+      <c r="D9" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="21">
       <c r="A10" s="9" t="s">
@@ -2162,10 +2178,10 @@
       <c r="C10" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8" t="s">
-        <v>472</v>
-      </c>
+      <c r="D10" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" s="29" customFormat="1" ht="21">
       <c r="A11" s="25" t="s">
@@ -2175,8 +2191,8 @@
         <v>11</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" ht="21">
       <c r="A12" s="9" t="s">
@@ -2188,10 +2204,10 @@
       <c r="C12" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8" t="s">
-        <v>472</v>
-      </c>
+      <c r="D12" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="21">
       <c r="A13" s="9" t="s">
@@ -2203,10 +2219,10 @@
       <c r="C13" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8" t="s">
-        <v>473</v>
-      </c>
+      <c r="D13" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="21">
       <c r="A14" s="9" t="s">
@@ -2216,8 +2232,8 @@
         <v>14</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="21">
       <c r="A15" s="9" t="s">
@@ -2227,8 +2243,8 @@
         <v>15</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="21">
       <c r="A16" s="9" t="s">
@@ -2237,9 +2253,15 @@
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="21">
       <c r="A17" s="9" t="s">
@@ -2249,19 +2271,19 @@
         <v>17</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="21">
-      <c r="A18" s="30" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" s="36" customFormat="1" ht="21">
+      <c r="A18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5" ht="21">
       <c r="A19" s="9" t="s">
@@ -2271,8 +2293,8 @@
         <v>19</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="21">
       <c r="A20" s="9" t="s">
@@ -2282,8 +2304,8 @@
         <v>20</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="21">
       <c r="A21" s="9" t="s">
@@ -2293,8 +2315,8 @@
         <v>21</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="21">
       <c r="A22" s="9" t="s">
@@ -2303,9 +2325,13 @@
       <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="21">
       <c r="A23" s="9" t="s">
@@ -2315,8 +2341,8 @@
         <v>23</v>
       </c>
       <c r="C23" s="21"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="21">
       <c r="A24" s="9" t="s">
@@ -2326,8 +2352,8 @@
         <v>24</v>
       </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="21">
       <c r="A25" s="9" t="s">
@@ -2337,8 +2363,8 @@
         <v>25</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="21">
       <c r="A26" s="9" t="s">
@@ -2348,8 +2374,8 @@
         <v>26</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="21">
       <c r="A27" s="9" t="s">
@@ -2359,8 +2385,8 @@
         <v>27</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="21">
       <c r="A28" s="9" t="s">
@@ -2369,9 +2395,13 @@
       <c r="B28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="21">
       <c r="A29" s="9" t="s">
@@ -2381,8 +2411,8 @@
         <v>29</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="21">
       <c r="A30" s="9" t="s">
@@ -2392,8 +2422,8 @@
         <v>30</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="21">
       <c r="A31" s="9" t="s">
@@ -2403,8 +2433,8 @@
         <v>31</v>
       </c>
       <c r="C31" s="21"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="21">
       <c r="A32" s="9" t="s">
@@ -2414,8 +2444,8 @@
         <v>32</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="21">
       <c r="A33" s="9" t="s">
@@ -2424,9 +2454,11 @@
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="8"/>
+      <c r="C33" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="21">
       <c r="A34" s="9" t="s">
@@ -2436,8 +2468,8 @@
         <v>34</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="21">
       <c r="A35" s="9" t="s">
@@ -2447,8 +2479,8 @@
         <v>35</v>
       </c>
       <c r="C35" s="21"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="21">
       <c r="A36" s="9" t="s">
@@ -2458,8 +2490,8 @@
         <v>36</v>
       </c>
       <c r="C36" s="21"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="21">
       <c r="A37" s="9" t="s">
@@ -2469,8 +2501,8 @@
         <v>37</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="21">
       <c r="A38" s="9" t="s">
@@ -2480,8 +2512,8 @@
         <v>38</v>
       </c>
       <c r="C38" s="21"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="21">
       <c r="A39" s="9" t="s">
@@ -2491,8 +2523,8 @@
         <v>39</v>
       </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="21">
       <c r="A40" s="9" t="s">
@@ -2502,8 +2534,8 @@
         <v>40</v>
       </c>
       <c r="C40" s="21"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="21">
       <c r="A41" s="9" t="s">
@@ -2513,8 +2545,8 @@
         <v>41</v>
       </c>
       <c r="C41" s="21"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="21">
       <c r="A42" s="14"/>
@@ -2527,7 +2559,7 @@
       <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:5" ht="21">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -2538,7 +2570,7 @@
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" ht="21">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -2547,13 +2579,13 @@
       <c r="C45" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>474</v>
-      </c>
+      <c r="D45" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" ht="21">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -2564,7 +2596,7 @@
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="21">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -2575,7 +2607,7 @@
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" ht="21">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -2586,7 +2618,7 @@
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" ht="21">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -2597,7 +2629,7 @@
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="21">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -2608,7 +2640,7 @@
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="21">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -2619,7 +2651,7 @@
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="21">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -2630,7 +2662,7 @@
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" ht="21">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -2693,7 +2725,7 @@
       <c r="A59" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="11" t="s">
